--- a/biology/Zoologie/William_Orville_Ayres/William_Orville_Ayres.xlsx
+++ b/biology/Zoologie/William_Orville_Ayres/William_Orville_Ayres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Orville Ayres est un médecin et un ichtyologiste américain, né le 11 septembre 1817 au Connecticut et mort le 30 avril 1887.
 Il fait des études à Yale où il obtient un titre de docteur en médecine. Passionné par l’histoire naturelle et notamment par l’ornithologie, il devient ami du peintre et ornithologue John James Audubon (1785-1851). Il devient le premier conservateur de l’ichtyologie de la California Academy of Sciences.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1855 : [Descriptions of new species of Californian fishes]. A number of short notices read before the Society at several meetings in 1855. Proc. Calif. Acad. Sci., (Ser. 1) v. 1 (pt. 1) : 23–77.
 1859 : [On new fishes of the Californian coast]. Proceedings of the California Academy of Natural Sciences (Ser. 1) v. 2 (1858–1862): 25–32.</t>
